--- a/output/cluster.json/game.result.xlsx
+++ b/output/cluster.json/game.result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <col customWidth="1" max="5" min="5" width="10"/>
     <col customWidth="1" max="6" min="6" width="7"/>
     <col customWidth="1" max="7" min="7" width="20"/>
-    <col customWidth="1" max="8" min="8" width="126"/>
+    <col customWidth="1" max="8" min="8" width="139"/>
     <col customWidth="1" max="9" min="9" width="6"/>
     <col customWidth="1" max="10" min="10" width="8"/>
     <col customWidth="1" max="11" min="11" width="8"/>
@@ -523,29 +523,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>13644</v>
+        <v>5673</v>
       </c>
       <c r="G2" t="n">
-        <v>71.35983263598327</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,29 +577,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>4975</v>
+        <v>1351</v>
       </c>
       <c r="G3" t="n">
-        <v>26.01987447698745</v>
+        <v>16.14097968936679</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 10:00:00.000000', 'end': '2024-12-02 11:00:00.000000'}</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,29 +631,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>112</v>
+        <v>1105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5857740585774058</v>
+        <v>13.20191158900836</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 11:00:00.000000', 'end': '2024-12-02 12:00:00.000000'}</t>
+          <t>info</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,29 +685,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5857740585774058</v>
+        <v>2.341696535244922</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 12:00:00.000000', 'end': '2024-12-02 13:00:00.000000'}</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5857740585774058</v>
+        <v>0.4062126642771804</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 13:00:00.000000', 'end': '2024-12-02 14:00:00.000000'}</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -793,29 +793,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>111</v>
+        <v>5673</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5805439330543933</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 14:00:00.000000', 'end': '2024-12-02 15:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -847,29 +847,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>54</v>
+        <v>842</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2824267782426779</v>
+        <v>10.05973715651135</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 15:00:00.000000', 'end': '2024-12-02 16:00:00.000000'}</t>
+          <t>Player</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -910,20 +910,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>13644</v>
+        <v>408</v>
       </c>
       <c r="G9" t="n">
-        <v>71.35983263598327</v>
+        <v>4.874551971326166</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>GuidancePlayer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -964,20 +964,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>2858</v>
+        <v>327</v>
       </c>
       <c r="G10" t="n">
-        <v>14.94769874476988</v>
+        <v>3.906810035842294</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>PHONESTCORE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>1502</v>
+        <v>220</v>
       </c>
       <c r="G11" t="n">
-        <v>7.855648535564853</v>
+        <v>2.628434886499403</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>GmManager</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1072,20 +1072,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>1089</v>
+        <v>195</v>
       </c>
       <c r="G12" t="n">
-        <v>5.69560669456067</v>
+        <v>2.329749103942652</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>CUSTOM</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1126,20 +1126,20 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1412133891213389</v>
+        <v>1.887694145758662</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>SingleWorld</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1180,20 +1180,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>13644</v>
+        <v>146</v>
       </c>
       <c r="G14" t="n">
-        <v>71.35983263598327</v>
+        <v>1.744324970131422</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Pet</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1234,20 +1234,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>2273</v>
+        <v>80</v>
       </c>
       <c r="G15" t="n">
-        <v>11.88807531380753</v>
+        <v>0.9557945041816009</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>TriggerMap</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1288,20 +1288,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>1088</v>
+        <v>63</v>
       </c>
       <c r="G16" t="n">
-        <v>5.690376569037657</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CUSTOM</t>
+          <t>Puppet</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1342,20 +1342,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>944</v>
+        <v>5673</v>
       </c>
       <c r="G17" t="n">
-        <v>4.937238493723849</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Reload</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1396,20 +1396,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="G18" t="n">
-        <v>2.092050209205021</v>
+        <v>6.057347670250897</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CharacterInfo</t>
+          <t>[debugSpeedCheck]     ...es\SpaceEntities\CommonComponent\SpeedCheckComponent.lua:109</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1450,20 +1450,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="G19" t="n">
-        <v>1.652719665271966</v>
+        <v>2.628434886499403</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PHONESTCORE</t>
+          <t>[overrideFunc]     C:\__WorldX_P4\server\Scripts/GameServer\Gm\GmManager.lua:88</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1504,20 +1504,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G20" t="n">
-        <v>1.140167364016736</v>
+        <v>2.293906810035842</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>GmManager</t>
+          <t>propertydeclaremgr.hpp:114(phonestcore::PropertyDeclareMgr::parseCustomTypeBundle)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1558,20 +1558,20 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1830543933054393</v>
+        <v>0.8721624850657108</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SingleWorld</t>
+          <t>[onTrigger]     ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:160</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1612,20 +1612,20 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1673640167364017</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CheckServerData</t>
+          <t>[refresh]     ...ties\SpaceEntities\SpaceComponent\SpaceTileComponent.lua:98</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1666,20 +1666,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G23" t="n">
-        <v>0.151673640167364</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pet</t>
+          <t>[doGainQuestByState]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:766</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1720,20 +1720,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>13644</v>
+        <v>61</v>
       </c>
       <c r="G24" t="n">
-        <v>71.35983263598327</v>
+        <v>0.7287933094384708</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>[initPendingQuestList]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:344</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1774,20 +1774,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>940</v>
+        <v>57</v>
       </c>
       <c r="G25" t="n">
-        <v>4.916317991631799</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[startReload]     ..._WorldX_P4\server\Engine/Core\Common\ReloadScheduler.lua:46</t>
+          <t>[doGainQuestByState]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:787</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1828,20 +1828,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>57</v>
       </c>
       <c r="G26" t="n">
-        <v>2.092050209205021</v>
+        <v>0.6810035842293907</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[_innerAddPet]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:791</t>
+          <t>[acceptQuest]     ...s\SpaceEntities\PlayerComponent\PlayerQuestComponent.lua:510</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1873,29 +1873,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>400</v>
+        <v>5673</v>
       </c>
       <c r="G27" t="n">
-        <v>2.092050209205021</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[_addCharacterList]     ...erver\Scripts/CustomTypesServerMethods\CharacterInfo.lua:33</t>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1927,29 +1927,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>400</v>
+        <v>1537</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092050209205021</v>
+        <v>18.36320191158901</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[updateCurPetFormation]     ...SpaceEntities\PlayerComponent\PetsFormationComponent.lua:233</t>
+          <t>{'start': '2024-12-07 12:00:00.000000', 'end': '2024-12-07 13:00:00.000000'}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>400</v>
+        <v>1039</v>
       </c>
       <c r="G29" t="n">
-        <v>2.092050209205021</v>
+        <v>12.41338112305854</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[updateCurPetFormation]     ...SpaceEntities\PlayerComponent\PetsFormationComponent.lua:235</t>
+          <t>{'start': '2024-12-07 14:00:00.000000', 'end': '2024-12-07 15:00:00.000000'}</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="G30" t="n">
-        <v>2.092050209205021</v>
+        <v>1.338112305854241</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[batchAddPets]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:544</t>
+          <t>{'start': '2024-12-07 13:00:00.000000', 'end': '2024-12-07 14:00:00.000000'}</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2089,29 +2089,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>400</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>2.092050209205021</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[_removePet]     ...Entities\SpaceEntities\PlayerComponent\PetsComponent.lua:876</t>
+          <t>{'start': '2024-12-07 15:00:00.000000', 'end': '2024-12-07 16:00:00.000000'}</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2143,29 +2143,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>K_MEANS-30</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>216</v>
+        <v>5673</v>
       </c>
       <c r="G32" t="n">
-        <v>1.129707112970711</v>
+        <v>67.77777777777779</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[overrideFunc]     C:\__WorldX_P4\server\Scripts/GameServer\Gm\GmManager.lua:88</t>
+          <t>['null']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2197,29 +2197,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>K_MEANS-30</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9937238493723849</v>
+        <v>4.145758661887694</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>propertydeclaremgr.hpp:114(phonestcore::PropertyDeclareMgr::parseCustomTypeBundle)</t>
+          <t>['EtcdProcessor (8043077 table: 0x0da1f040) refresh service info [8043077/SHARD/MatchService/6753cbc45c8f997183834f28]']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2260,20 +2260,20 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>13644</v>
+        <v>239</v>
       </c>
       <c r="G34" t="n">
-        <v>71.35983263598327</v>
+        <v>2.855436081242533</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['null']</t>
+          <t>['DeclareMgr parse customType TriggerMap']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2314,20 +2314,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>800</v>
+        <v>221</v>
       </c>
       <c r="G35" t="n">
-        <v>4.184100418410042</v>
+        <v>2.640382317801673</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['pet_change_flow']</t>
+          <t>['__quest doGainPendingQuest: questId = 3902001, state = 1\tGuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2368,20 +2368,20 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="G36" t="n">
-        <v>2.123430962343096</v>
+        <v>2.628434886499403</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['_addPet petId=Z00hMb8OlebPX2gy\tPlayer(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)']</t>
+          <t>['gm handlers register hotfix']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2422,20 +2422,20 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>403</v>
+        <v>167</v>
       </c>
       <c r="G37" t="n">
-        <v>2.107740585774059</v>
+        <v>1.995221027479092</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['updateCurPetFormation battle\tfalse\tZ00hMb8OlebPX2gz\t1001100\tPlayer(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)']</t>
+          <t>['server_player_flow']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2476,20 +2476,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>400</v>
+        <v>153</v>
       </c>
       <c r="G38" t="n">
-        <v>2.092050209205021</v>
+        <v>1.827956989247312</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['_addCharacterList characterId=10102\tPetInfo(templateId=1001100, entityId=Z00hoL8OlebPX2kM)']</t>
+          <t>['ServerEntity (SingleWorld, Z1PL0lyPmXGDg09H, 259) load tile\t1020897']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2530,20 +2530,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="G39" t="n">
-        <v>2.092050209205021</v>
+        <v>1.672640382317802</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['addPetByBatch success one, petId=Z00hMb8OlebPX2gs, sourceId=5']</t>
+          <t>['__quest acceptQuest: questId = 3902001, force = nil.\tGuidancePlayer(uid=Z1PL7FyPmXGDg09N, entityId=Z1PL7FyPmXGDg09N, actorId=10)']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2584,20 +2584,20 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>397</v>
+        <v>132</v>
       </c>
       <c r="G40" t="n">
-        <v>2.076359832635983</v>
+        <v>1.577060931899642</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['updateCurPetFormation explore\tfalse\tZ00hMb8OlebPX2gy\t1001100\tPlayer(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)']</t>
+          <t>['copySingleWorldData\tPlayer(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)\t259']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2638,20 +2638,20 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>397</v>
+        <v>127</v>
       </c>
       <c r="G41" t="n">
-        <v>2.076359832635983</v>
+        <v>1.517323775388292</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['_removePet petId=Z00hMb8OlebPX2gy\tPlayer(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)']</t>
+          <t>['speedCheck\t0\t2']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2670,114 +2670,6 @@
         </is>
       </c>
       <c r="L41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>MESSAGE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>K_MEANS-30</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>9</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10</v>
-      </c>
-      <c r="F42" t="n">
-        <v>274</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.433054393305439</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>['server_player_flow']</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MESSAGE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>K_MEANS-30</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10</v>
-      </c>
-      <c r="F43" t="n">
-        <v>265</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.385983263598326</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>['start reload file Entities.SpaceEntities.Player.lua']</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
